--- a/2024-3q/Сводные оценки - Станкевич Иван.xlsx
+++ b/2024-3q/Сводные оценки - Станкевич Иван.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27582BB7-1FB0-6B4D-890C-FE217184845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A147D8-CE90-CC48-9E12-94A63B491A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Имя</t>
   </si>
@@ -161,13 +161,16 @@
   </si>
   <si>
     <t>Семёнов Сергей</t>
+  </si>
+  <si>
+    <t>Шафранский Владимир Владимирович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +183,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -702,7 +712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1376,35 +1386,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" ref="D11" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
+        <v>C</v>
       </c>
       <c r="E11" s="17">
         <f t="array" ref="E11">SUM(F11:V11*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2</v>
+      </c>
+      <c r="P11" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>5</v>
+      </c>
+      <c r="R11" s="16">
+        <v>5</v>
+      </c>
+      <c r="S11" s="16">
+        <v>5</v>
+      </c>
+      <c r="T11" s="16">
+        <v>3</v>
+      </c>
+      <c r="U11" s="16">
+        <v>5</v>
+      </c>
+      <c r="V11" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
@@ -2131,7 +2181,7 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="str">
-        <f t="shared" ref="D36:D67" si="1">IF(NOT(EXACT(A36,"")),IF(E36=0,"D",IF(E36&lt;3.4,"C",IF(E36&lt;3.8,"B-",IF(E36&lt;4,"B",IF(E36&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D36:D67" si="2">IF(NOT(EXACT(A36,"")),IF(E36=0,"D",IF(E36&lt;3.4,"C",IF(E36&lt;3.8,"B-",IF(E36&lt;4,"B",IF(E36&lt;4.3,"B+","A"))))),"-")</f>
         <v>-</v>
       </c>
       <c r="E36" s="17">
@@ -2161,7 +2211,7 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E37" s="17">
@@ -2191,7 +2241,7 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E38" s="17">
@@ -2221,7 +2271,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E39" s="17">
@@ -2251,7 +2301,7 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E40" s="17">
@@ -2281,7 +2331,7 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E41" s="17">
@@ -2311,7 +2361,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E42" s="17">
@@ -2341,7 +2391,7 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E43" s="17">
@@ -2371,7 +2421,7 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E44" s="17">
@@ -2401,7 +2451,7 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E45" s="17">
@@ -2431,7 +2481,7 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E46" s="17">
@@ -2461,7 +2511,7 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E47" s="17">
@@ -2491,7 +2541,7 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E48" s="17">
@@ -2521,7 +2571,7 @@
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E49" s="17">
@@ -2551,7 +2601,7 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E50" s="17">
@@ -2581,7 +2631,7 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E51" s="17">
@@ -2611,7 +2661,7 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E52" s="17">
@@ -2641,7 +2691,7 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E53" s="17">
@@ -2671,7 +2721,7 @@
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E54" s="17">
@@ -2701,7 +2751,7 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E55" s="17">
@@ -2731,7 +2781,7 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E56" s="17">
@@ -2761,7 +2811,7 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E57" s="17">
@@ -2791,7 +2841,7 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E58" s="17">
@@ -2821,7 +2871,7 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E59" s="17">
@@ -2851,7 +2901,7 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E60" s="17">
@@ -2881,7 +2931,7 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E61" s="17">
@@ -2911,7 +2961,7 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E62" s="17">
@@ -2941,7 +2991,7 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E63" s="17">
@@ -2971,7 +3021,7 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E64" s="17">
@@ -3001,7 +3051,7 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E65" s="17">
@@ -3031,7 +3081,7 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E66" s="17">
@@ -3061,7 +3111,7 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E67" s="17">
@@ -3091,7 +3141,7 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16" t="str">
-        <f t="shared" ref="D68:D99" si="2">IF(NOT(EXACT(A68,"")),IF(E68=0,"D",IF(E68&lt;3.4,"C",IF(E68&lt;3.8,"B-",IF(E68&lt;4,"B",IF(E68&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D68:D91" si="3">IF(NOT(EXACT(A68,"")),IF(E68=0,"D",IF(E68&lt;3.4,"C",IF(E68&lt;3.8,"B-",IF(E68&lt;4,"B",IF(E68&lt;4.3,"B+","A"))))),"-")</f>
         <v>-</v>
       </c>
       <c r="E68" s="17">
@@ -3121,7 +3171,7 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E69" s="17">
@@ -3151,7 +3201,7 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E70" s="17">
@@ -3181,7 +3231,7 @@
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E71" s="17">
@@ -3211,7 +3261,7 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E72" s="17">
@@ -3241,7 +3291,7 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E73" s="17">
@@ -3271,7 +3321,7 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E74" s="17">
@@ -3301,7 +3351,7 @@
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E75" s="17">
@@ -3331,7 +3381,7 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E76" s="17">
@@ -3361,7 +3411,7 @@
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E77" s="17">
@@ -3391,7 +3441,7 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E78" s="17">
@@ -3421,7 +3471,7 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E79" s="17">
@@ -3451,7 +3501,7 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E80" s="17">
@@ -3481,7 +3531,7 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E81" s="17">
@@ -3511,7 +3561,7 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E82" s="17">
@@ -3541,7 +3591,7 @@
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E83" s="17">
@@ -3571,7 +3621,7 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E84" s="17">
@@ -3601,7 +3651,7 @@
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E85" s="17">
@@ -3631,7 +3681,7 @@
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E86" s="17">
@@ -3661,7 +3711,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E87" s="17">
@@ -3691,7 +3741,7 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E88" s="17">
@@ -3721,7 +3771,7 @@
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E89" s="17">
@@ -3751,7 +3801,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E90" s="17">
@@ -3781,7 +3831,7 @@
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E91" s="22">
@@ -3827,7 +3877,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3872,11 +3922,11 @@
       </c>
       <c r="B4" s="13">
         <f t="array" ref="B4">SUM(IF(Результаты!$C$4:$C$91=$A4,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!D$4:D$91=$A4,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$C$4:$C$88="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -3957,11 +4007,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3989,11 +4039,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$B4:$B91)</f>
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Сводные оценки - Станкевич Иван.xlsx
+++ b/2024-3q/Сводные оценки - Станкевич Иван.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A147D8-CE90-CC48-9E12-94A63B491A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D36BDA-E791-3343-99AD-179C1ECECDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Имя</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Шафранский Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Кураленко Андрей</t>
+  </si>
+  <si>
+    <t>Козлов Павел Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -372,6 +378,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,7 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -712,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,47 +746,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
+      <c r="F1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
@@ -834,12 +840,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4">
         <f>SUM(F3:V3)</f>
         <v>1</v>
@@ -1387,7 +1393,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="16">
@@ -1397,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f t="shared" ref="D11" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D11:D13" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
         <v>C</v>
       </c>
       <c r="E11" s="17">
@@ -1456,65 +1462,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="16">
+        <v>40</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>B-</v>
       </c>
       <c r="E12" s="17">
         <f t="array" ref="E12">SUM(F12:V12*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>3</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>4</v>
+      </c>
+      <c r="N12" s="16">
+        <v>3</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2</v>
+      </c>
+      <c r="P12" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>3</v>
+      </c>
+      <c r="R12" s="16">
+        <v>5</v>
+      </c>
+      <c r="S12" s="16">
+        <v>5</v>
+      </c>
+      <c r="T12" s="16">
+        <v>4</v>
+      </c>
+      <c r="U12" s="16">
+        <v>4</v>
+      </c>
+      <c r="V12" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="16">
+        <v>30</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>B-</v>
       </c>
       <c r="E13" s="17">
         <f t="array" ref="E13">SUM(F13:V13*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+        <v>3.4500000000000011</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>4</v>
+      </c>
+      <c r="J13" s="16">
+        <v>3</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16">
+        <v>2</v>
+      </c>
+      <c r="M13" s="16">
+        <v>3</v>
+      </c>
+      <c r="N13" s="16">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>2</v>
+      </c>
+      <c r="P13" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
+        <v>3</v>
+      </c>
+      <c r="U13" s="16">
+        <v>5</v>
+      </c>
+      <c r="V13" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -3886,11 +3972,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -3943,7 +4029,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!D$4:D$91=$A5,1,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$C$4:$C$88="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -3956,7 +4042,7 @@
       </c>
       <c r="B6" s="13">
         <f t="array" ref="B6">SUM(IF(Результаты!$C$4:$C$91=$A6,1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="13">
         <f t="array" ref="C6">SUM(IF(Результаты!D$4:D$91=$A6,1,0))</f>
@@ -4007,19 +4093,19 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
@@ -4035,15 +4121,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$B4:$B91)</f>
-        <v>270</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Сводные оценки - Станкевич Иван.xlsx
+++ b/2024-3q/Сводные оценки - Станкевич Иван.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D36BDA-E791-3343-99AD-179C1ECECDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD4351-C3CC-1A4C-B90D-7BEBD9A9AB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Имя</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Козлов Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Бут-Гусаим Дима</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f t="shared" ref="D11:D13" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D11:D14" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
         <v>C</v>
       </c>
       <c r="E11" s="17">
@@ -1603,34 +1606,74 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="16">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>C</v>
       </c>
       <c r="E14" s="17">
         <f t="array" ref="E14">SUM(F14:V14*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
+        <v>3.2900000000000009</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3</v>
+      </c>
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3</v>
+      </c>
+      <c r="N14" s="16">
+        <v>3</v>
+      </c>
+      <c r="O14" s="16">
+        <v>2</v>
+      </c>
+      <c r="P14" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>5</v>
+      </c>
+      <c r="R14" s="16">
+        <v>4</v>
+      </c>
+      <c r="S14" s="16">
+        <v>4</v>
+      </c>
+      <c r="T14" s="16">
+        <v>3</v>
+      </c>
+      <c r="U14" s="16">
+        <v>4</v>
+      </c>
+      <c r="V14" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -4008,11 +4051,11 @@
       </c>
       <c r="B4" s="13">
         <f t="array" ref="B4">SUM(IF(Результаты!$C$4:$C$91=$A4,1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!D$4:D$91=$A4,1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$C$4:$C$88="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4093,11 +4136,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,15 +4164,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$B4:$B91)</f>
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Сводные оценки - Станкевич Иван.xlsx
+++ b/2024-3q/Сводные оценки - Станкевич Иван.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD4351-C3CC-1A4C-B90D-7BEBD9A9AB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CEFCE-DB37-4C48-B115-E159AB954643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Имя</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Бут-Гусаим Дима</t>
+  </si>
+  <si>
+    <t>Чуносов Дмитрий Леонидович</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f t="shared" ref="D11:D14" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D11:D15" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
         <v>C</v>
       </c>
       <c r="E11" s="17">
@@ -1675,35 +1678,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="16">
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>C</v>
       </c>
       <c r="E15" s="17">
         <f t="array" ref="E15">SUM(F15:V15*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+        <v>3.06</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
+      <c r="K15" s="16">
+        <v>2</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16">
+        <v>3</v>
+      </c>
+      <c r="N15" s="16">
+        <v>3</v>
+      </c>
+      <c r="O15" s="16">
+        <v>2</v>
+      </c>
+      <c r="P15" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>4</v>
+      </c>
+      <c r="R15" s="16">
+        <v>3</v>
+      </c>
+      <c r="S15" s="16">
+        <v>4</v>
+      </c>
+      <c r="T15" s="16">
+        <v>3</v>
+      </c>
+      <c r="U15" s="16">
+        <v>3</v>
+      </c>
+      <c r="V15" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -4051,11 +4094,11 @@
       </c>
       <c r="B4" s="13">
         <f t="array" ref="B4">SUM(IF(Результаты!$C$4:$C$91=$A4,1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!D$4:D$91=$A4,1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$C$4:$C$88="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4136,11 +4179,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4168,11 +4211,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$B4:$B91)</f>
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Сводные оценки - Станкевич Иван.xlsx
+++ b/2024-3q/Сводные оценки - Станкевич Иван.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CEFCE-DB37-4C48-B115-E159AB954643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470EBCB-B227-6C45-AD35-AF1C7E731308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Имя</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Чуносов Дмитрий Леонидович</t>
+  </si>
+  <si>
+    <t>Семёнов Егор</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f t="shared" ref="D11:D15" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
+        <f t="shared" ref="D11:D16" si="1">IF(NOT(EXACT(A11,"")),IF(E11=0,"D",IF(E11&lt;3.4,"C",IF(E11&lt;3.8,"B-",IF(E11&lt;4,"B",IF(E11&lt;4.3,"B+","A"))))),"-")</f>
         <v>C</v>
       </c>
       <c r="E11" s="17">
@@ -1749,34 +1752,74 @@
       </c>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="16">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>B+</v>
       </c>
       <c r="E16" s="17">
         <f t="array" ref="E16">SUM(F16:V16*F$3:V$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+        <v>4.13</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>3</v>
+      </c>
+      <c r="O16" s="16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>5</v>
+      </c>
+      <c r="R16" s="16">
+        <v>5</v>
+      </c>
+      <c r="S16" s="16">
+        <v>5</v>
+      </c>
+      <c r="T16" s="16">
+        <v>4</v>
+      </c>
+      <c r="U16" s="16">
+        <v>4</v>
+      </c>
+      <c r="V16" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -4145,11 +4188,11 @@
       </c>
       <c r="B7" s="13">
         <f t="array" ref="B7">SUM(IF(Результаты!$C$4:$C$91=$A7,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="13">
         <f t="array" ref="C7">SUM(IF(Результаты!D$4:D$91=$A7,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="array" ref="D7">IF(SUM(IF(Результаты!$C$4:$C$88="В+",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4179,11 +4222,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4207,15 +4250,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$B4:$B91)</f>
-        <v>400</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
